--- a/biology/Zoologie/Damon_medius/Damon_medius.xlsx
+++ b/biology/Zoologie/Damon_medius/Damon_medius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Damon medius est une espèce d'amblypyges de la famille des Phrynichidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Sénégal, au Mali, en Guinée, en Sierra Leone, au Liberia, en Côte d'Ivoire, au Ghana, au Togo, au Bénin, au Nigeria, au Cameroun et à Sao Tomé-et-Principe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Sénégal, au Mali, en Guinée, en Sierra Leone, au Liberia, en Côte d'Ivoire, au Ghana, au Togo, au Bénin, au Nigeria, au Cameroun et à Sao Tomé-et-Principe.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Damon medius mesure de 3 à 4 cm de corps. Il est constitué, tout comme les autres arachnides, de deux parties principales, un abdomen et un céphalothorax sur lequel sont fixées les pattes et les pédipalpes. On y retrouve trois paires de pattes ambulatoires et une paire de pattes dites antenniformes ou tactiles, qui permet à l'amblypyge de mieux se situer dans l'espace ou d'attirer une proie en la chatouillant pour l'amener droit vers les pédipalpes et ainsi faciliter sa capture.
 Leur morphologie très aplatie leur permet de se glisser dans de petite fissures ou en tous cas dans des recoins inaccessible pour la majeure partie des animaux.
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lichtenstein &amp; Herbst, 1797 : Naturgeschichte der Insekten-Gattungen. Solpuga und Phalangium.</t>
         </is>
